--- a/Librería de componentes.xlsx
+++ b/Librería de componentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUNELY\Desktop\ITLA\Décimo segundo cuatrimestre\Electiva Mecatrónica - Diseño Mecatrónico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB887BD6-B1B9-442B-9DEC-8AFACA89A4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED01097-00BC-4C9F-847B-085CE8A42C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
   </bookViews>
@@ -1189,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1198,55 +1198,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1310,6 +1269,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1333,9 +1295,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1381,6 +1340,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1404,9 +1366,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1458,6 +1417,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1481,6 +1443,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1516,6 +1487,34 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1530,67 +1529,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{36E12380-37CE-400D-B2F7-9E38CEE17764}" name="Tabla20" displayName="Tabla20" ref="A1:G42" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{36E12380-37CE-400D-B2F7-9E38CEE17764}" name="Tabla20" displayName="Tabla20" ref="A1:G42" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:G42" xr:uid="{36E12380-37CE-400D-B2F7-9E38CEE17764}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{796517A2-73C5-4AF6-A4B5-753C303D8BE0}" name="Número de parte" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{3D9D4BAA-0B2E-4274-A6C0-FD18ED42728F}" name="Valor (Ω)" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{71C72941-6CCE-4564-89D6-759C10E7E45F}" name="Tolerancia (%)" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{74C25F89-FC78-43D5-BA38-77C1FEF1B16D}" name="Potencia (W)" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{BAD468FB-A718-4770-868F-253225E6AFAA}" name="Coeficiente de tempratura (PPM/C)" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{2CEBA80D-0FDB-4E1D-9BA1-BE811ACC912B}" name="Fabricante" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F4BC416D-0CF7-483A-8FDF-B0E6E2C4B348}" name="Agregado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{796517A2-73C5-4AF6-A4B5-753C303D8BE0}" name="Número de parte" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{3D9D4BAA-0B2E-4274-A6C0-FD18ED42728F}" name="Valor (Ω)" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{71C72941-6CCE-4564-89D6-759C10E7E45F}" name="Tolerancia (%)" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{74C25F89-FC78-43D5-BA38-77C1FEF1B16D}" name="Potencia (W)" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{BAD468FB-A718-4770-868F-253225E6AFAA}" name="Coeficiente de tempratura (PPM/C)" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{2CEBA80D-0FDB-4E1D-9BA1-BE811ACC912B}" name="Fabricante" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{F4BC416D-0CF7-483A-8FDF-B0E6E2C4B348}" name="Agregado" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{094A1CDA-BED8-4FA8-B90D-2F30FF900E97}" name="Tabla21" displayName="Tabla21" ref="A1:I65" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{094A1CDA-BED8-4FA8-B90D-2F30FF900E97}" name="Tabla21" displayName="Tabla21" ref="A1:I65" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:I65" xr:uid="{094A1CDA-BED8-4FA8-B90D-2F30FF900E97}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F9621106-4CBA-485E-A6A7-F959B9D5BAA4}" name="Número de parte" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{727F9A12-8C4D-45B2-BA2C-2741DB2339B7}" name="Valor (F)" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{0B9ADF9C-C80E-439B-8F1B-45EB641545E9}" name="Tolerancia (%)" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{1D7059B7-9582-4653-8FD0-0833B6574001}" name="Voltaje (v)" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{6A418381-1452-4BB9-B8E9-C7D591A975F4}" name="Tipo de voltaje" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{B7BE1B50-568D-415D-8701-DB0BF62EA996}" name="Vida (horas)" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{CD39A474-7F91-47B0-A6C8-DA36A387B50D}" name="Tipo" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{F8C3E44C-4CFE-45BA-A2C5-6E552212B32F}" name="Fabricante" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{AED96924-7F26-4825-8814-2F9A40A1BDD9}" name="Agregado" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{F9621106-4CBA-485E-A6A7-F959B9D5BAA4}" name="Número de parte" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{727F9A12-8C4D-45B2-BA2C-2741DB2339B7}" name="Valor (F)" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{0B9ADF9C-C80E-439B-8F1B-45EB641545E9}" name="Tolerancia (%)" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{1D7059B7-9582-4653-8FD0-0833B6574001}" name="Voltaje (v)" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{6A418381-1452-4BB9-B8E9-C7D591A975F4}" name="Tipo de voltaje" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{B7BE1B50-568D-415D-8701-DB0BF62EA996}" name="Vida (horas)" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{CD39A474-7F91-47B0-A6C8-DA36A387B50D}" name="Tipo" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{F8C3E44C-4CFE-45BA-A2C5-6E552212B32F}" name="Fabricante" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{AED96924-7F26-4825-8814-2F9A40A1BDD9}" name="Agregado" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{81AEC8DF-CB6F-4A4A-A3CD-ACA34366D852}" name="Tabla22" displayName="Tabla22" ref="A1:G68" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{81AEC8DF-CB6F-4A4A-A3CD-ACA34366D852}" name="Tabla22" displayName="Tabla22" ref="A1:G68" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:G68" xr:uid="{81AEC8DF-CB6F-4A4A-A3CD-ACA34366D852}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{21F9D534-4783-4EA9-A890-5356620CE1BC}" name="Número de parte" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{E9668112-3805-4143-B6C1-87C87AB0E5A0}" name="Valor (H)" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{8F8A61A6-8021-4596-951C-765370CEAB10}" name="Tolerancia (%)" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{0C85D6BC-C464-41C2-9A72-6D06275FE232}" name="Corriente (A)" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{32972288-40B5-4DD9-9215-18531D5D3838}" name="Tipo" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{37F575D6-0780-47B8-924C-3AAA92F10605}" name="Fabricante" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{7708C74C-21CF-4A9B-85E2-21F6925251D1}" name="Agregado" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{21F9D534-4783-4EA9-A890-5356620CE1BC}" name="Número de parte" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E9668112-3805-4143-B6C1-87C87AB0E5A0}" name="Valor (H)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{8F8A61A6-8021-4596-951C-765370CEAB10}" name="Tolerancia (%)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0C85D6BC-C464-41C2-9A72-6D06275FE232}" name="Corriente (A)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{32972288-40B5-4DD9-9215-18531D5D3838}" name="Tipo" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{37F575D6-0780-47B8-924C-3AAA92F10605}" name="Fabricante" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{7708C74C-21CF-4A9B-85E2-21F6925251D1}" name="Agregado" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F9ABAB21-2534-4602-B505-BC400EFEBC75}" name="Tabla23" displayName="Tabla23" ref="A1:H19" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F9ABAB21-2534-4602-B505-BC400EFEBC75}" name="Tabla23" displayName="Tabla23" ref="A1:H19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H19" xr:uid="{F9ABAB21-2534-4602-B505-BC400EFEBC75}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7261B210-8024-41E8-A775-16C44D2F1D76}" name="Número de parte" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4DFEE4F8-7545-4360-A64D-34145DA5CC52}" name="Tecnología" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{78713A6B-7197-45D9-A9B6-7011366C51D0}" name="Polaridad" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{AC2D5852-5116-4A1D-8B2F-784159912DDC}" name="Vgs-th (v)" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{CC022B58-04A3-4687-9C74-5DC2DB6801FD}" name="Id (A)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{8D220D3F-D36D-4D32-8C07-F4720A934B43}" name="Potencia (W)" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A536371A-B0C9-4273-86B9-3C8562768D0C}" name="Fabricante" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{C04B2730-F623-48A3-83DC-3C4DCC77E821}" name="Agregado" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7261B210-8024-41E8-A775-16C44D2F1D76}" name="Número de parte" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4DFEE4F8-7545-4360-A64D-34145DA5CC52}" name="Tecnología" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{78713A6B-7197-45D9-A9B6-7011366C51D0}" name="Polaridad" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{AC2D5852-5116-4A1D-8B2F-784159912DDC}" name="Vgs-th (v)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{CC022B58-04A3-4687-9C74-5DC2DB6801FD}" name="Id (A)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{8D220D3F-D36D-4D32-8C07-F4720A934B43}" name="Potencia (W)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{A536371A-B0C9-4273-86B9-3C8562768D0C}" name="Fabricante" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C04B2730-F623-48A3-83DC-3C4DCC77E821}" name="Agregado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1916,7 +1915,8 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2919,7 +2919,8 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2935,7 +2936,7 @@
     <col min="9" max="9" width="18.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4842,7 +4843,8 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4856,7 +4858,7 @@
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6442,7 +6444,8 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6457,7 +6460,7 @@
     <col min="8" max="8" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>

--- a/Librería de componentes.xlsx
+++ b/Librería de componentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUNELY\Desktop\ITLA\Décimo segundo cuatrimestre\Electiva Mecatrónica - Diseño Mecatrónico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED01097-00BC-4C9F-847B-085CE8A42C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643FF439-E8FF-4400-B602-0F3A62263CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencias" sheetId="1" r:id="rId1"/>
@@ -665,9 +665,6 @@
     <t>PES227HKP4460ME4</t>
   </si>
   <si>
-    <t>Vida (horas)</t>
-  </si>
-  <si>
     <t>Corriente (A)</t>
   </si>
   <si>
@@ -1124,6 +1121,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Vida útil (horas)</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1553,7 @@
     <tableColumn id="3" xr3:uid="{0B9ADF9C-C80E-439B-8F1B-45EB641545E9}" name="Tolerancia (%)" dataDxfId="25"/>
     <tableColumn id="4" xr3:uid="{1D7059B7-9582-4653-8FD0-0833B6574001}" name="Voltaje (v)" dataDxfId="24"/>
     <tableColumn id="5" xr3:uid="{6A418381-1452-4BB9-B8E9-C7D591A975F4}" name="Tipo de voltaje" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{B7BE1B50-568D-415D-8701-DB0BF62EA996}" name="Vida (horas)" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{B7BE1B50-568D-415D-8701-DB0BF62EA996}" name="Vida útil (horas)" dataDxfId="22"/>
     <tableColumn id="7" xr3:uid="{CD39A474-7F91-47B0-A6C8-DA36A387B50D}" name="Tipo" dataDxfId="21"/>
     <tableColumn id="8" xr3:uid="{F8C3E44C-4CFE-45BA-A2C5-6E552212B32F}" name="Fabricante" dataDxfId="20"/>
     <tableColumn id="9" xr3:uid="{AED96924-7F26-4825-8814-2F9A40A1BDD9}" name="Agregado" dataDxfId="19"/>
@@ -1914,9 +1914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEBF3B-4C72-4C22-8C79-512894A2A873}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -2918,9 +2918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205CF36-A0B2-46BE-A22B-1B8CB93B9542}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2930,7 +2930,7 @@
     <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.109375" style="1" customWidth="1"/>
@@ -2953,7 +2953,7 @@
         <v>80</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>208</v>
+        <v>353</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>77</v>
@@ -2991,7 +2991,7 @@
         <v>82</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3020,7 +3020,7 @@
         <v>82</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3049,7 +3049,7 @@
         <v>82</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3078,7 +3078,7 @@
         <v>82</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3107,7 +3107,7 @@
         <v>82</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3136,7 +3136,7 @@
         <v>82</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,7 @@
         <v>82</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3194,7 +3194,7 @@
         <v>82</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3223,7 +3223,7 @@
         <v>82</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3252,7 +3252,7 @@
         <v>82</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3281,7 +3281,7 @@
         <v>82</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3310,7 +3310,7 @@
         <v>82</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3339,7 +3339,7 @@
         <v>82</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3368,7 +3368,7 @@
         <v>82</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
         <v>82</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3426,7 +3426,7 @@
         <v>82</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3455,7 +3455,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3484,7 +3484,7 @@
         <v>82</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3513,7 +3513,7 @@
         <v>82</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3542,7 +3542,7 @@
         <v>82</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3571,7 +3571,7 @@
         <v>82</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3600,7 +3600,7 @@
         <v>82</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3629,7 +3629,7 @@
         <v>82</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3658,7 +3658,7 @@
         <v>82</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3687,7 +3687,7 @@
         <v>82</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3716,7 +3716,7 @@
         <v>82</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3745,7 +3745,7 @@
         <v>82</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3774,7 +3774,7 @@
         <v>82</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3803,7 +3803,7 @@
         <v>82</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3832,7 +3832,7 @@
         <v>82</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3890,7 +3890,7 @@
         <v>82</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3919,7 +3919,7 @@
         <v>82</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3948,7 +3948,7 @@
         <v>82</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4296,7 +4296,7 @@
         <v>82</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4325,7 +4325,7 @@
         <v>82</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4844,7 +4844,7 @@
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4863,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>77</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>131</v>
@@ -4895,10 +4895,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>133</v>
@@ -4918,10 +4918,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>135</v>
@@ -4938,13 +4938,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>137</v>
@@ -4961,13 +4961,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>139</v>
@@ -4984,13 +4984,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>141</v>
@@ -5007,13 +5007,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>143</v>
@@ -5030,13 +5030,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="1">
         <v>8.1999999999999993</v>
@@ -5053,13 +5053,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>147</v>
@@ -5076,13 +5076,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>149</v>
@@ -5099,13 +5099,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>151</v>
@@ -5122,13 +5122,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>153</v>
@@ -5145,13 +5145,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>155</v>
@@ -5168,13 +5168,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>157</v>
@@ -5191,13 +5191,13 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5205,22 +5205,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>159</v>
@@ -5237,13 +5237,13 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>161</v>
@@ -5260,13 +5260,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>163</v>
@@ -5283,13 +5283,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>165</v>
@@ -5306,13 +5306,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>167</v>
@@ -5329,13 +5329,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5343,22 +5343,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C22" s="1">
         <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5366,7 +5366,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>169</v>
@@ -5375,13 +5375,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>170</v>
@@ -5398,13 +5398,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>172</v>
@@ -5421,13 +5421,13 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>172</v>
@@ -5447,10 +5447,10 @@
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>173</v>
@@ -5467,13 +5467,13 @@
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>173</v>
@@ -5493,10 +5493,10 @@
         <v>8.4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>179</v>
@@ -5513,13 +5513,13 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>179</v>
@@ -5539,10 +5539,10 @@
         <v>9.5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>181</v>
@@ -5559,13 +5559,13 @@
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>181</v>
@@ -5585,10 +5585,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -5596,22 +5596,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -5619,10 +5619,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="1">
         <v>30</v>
@@ -5631,10 +5631,10 @@
         <v>6.3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>183</v>
@@ -5651,13 +5651,13 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" s="1">
         <v>6.8</v>
@@ -5677,10 +5677,10 @@
         <v>6.8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -5688,22 +5688,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C37" s="1">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -5711,10 +5711,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -5723,10 +5723,10 @@
         <v>1.51</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>185</v>
@@ -5743,13 +5743,13 @@
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>185</v>
@@ -5769,10 +5769,10 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>187</v>
@@ -5789,13 +5789,13 @@
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>187</v>
@@ -5815,10 +5815,10 @@
         <v>6.9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>189</v>
@@ -5835,13 +5835,13 @@
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>189</v>
@@ -5861,10 +5861,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>191</v>
@@ -5881,13 +5881,13 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>191</v>
@@ -5907,10 +5907,10 @@
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -5918,22 +5918,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C47" s="1">
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -5941,22 +5941,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" s="1">
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>193</v>
@@ -5973,13 +5973,13 @@
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>193</v>
@@ -5999,10 +5999,10 @@
         <v>3.4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -6010,22 +6010,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C51" s="1">
         <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -6033,22 +6033,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C52" s="1">
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>195</v>
@@ -6065,13 +6065,13 @@
         <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>195</v>
@@ -6091,10 +6091,10 @@
         <v>1.8</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>197</v>
@@ -6111,13 +6111,13 @@
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>199</v>
@@ -6134,13 +6134,13 @@
         <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>201</v>
@@ -6157,13 +6157,13 @@
         <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -6171,22 +6171,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C58" s="1">
         <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -6194,22 +6194,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C59" s="1">
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -6217,22 +6217,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -6240,22 +6240,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C61" s="1">
         <v>20</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -6263,22 +6263,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -6286,22 +6286,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C63" s="1">
         <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -6309,22 +6309,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="C64" s="1">
         <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -6332,22 +6332,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C65" s="1">
         <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -6355,22 +6355,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="C66" s="1">
         <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -6378,22 +6378,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C67" s="1">
         <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -6401,22 +6401,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C68" s="1">
         <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -6445,7 +6445,7 @@
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6465,16 +6465,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -6488,13 +6488,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D2" s="1">
         <v>1.5</v>
@@ -6506,21 +6506,21 @@
         <v>1.5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D3" s="1">
         <v>1.5</v>
@@ -6532,21 +6532,21 @@
         <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" s="1">
         <v>1.5</v>
@@ -6558,21 +6558,21 @@
         <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -6584,21 +6584,21 @@
         <v>1.31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -6610,21 +6610,21 @@
         <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -6636,21 +6636,21 @@
         <v>214</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D8" s="1">
         <v>2.5</v>
@@ -6662,21 +6662,21 @@
         <v>1.5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D9" s="1">
         <v>2.5</v>
@@ -6688,21 +6688,21 @@
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D10" s="1">
         <v>2.5</v>
@@ -6714,21 +6714,21 @@
         <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -6740,7 +6740,7 @@
         <v>240</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -6748,13 +6748,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -6766,21 +6766,21 @@
         <v>3.2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -6792,21 +6792,21 @@
         <v>139</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="1">
         <v>3.5</v>
@@ -6818,21 +6818,21 @@
         <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D15" s="1">
         <v>3.5</v>
@@ -6844,21 +6844,21 @@
         <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D16" s="1">
         <v>3.5</v>
@@ -6870,21 +6870,21 @@
         <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -6896,21 +6896,21 @@
         <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -6922,21 +6922,21 @@
         <v>89</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -6948,10 +6948,10 @@
         <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Librería de componentes.xlsx
+++ b/Librería de componentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUNELY\Desktop\ITLA\Décimo segundo cuatrimestre\Electiva Mecatrónica - Diseño Mecatrónico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D9214-453D-4514-BA33-0FD20D82AF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094717F-15D4-4A5E-8A8C-7AB34A223239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencias" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Transistores" sheetId="4" r:id="rId4"/>
     <sheet name="OPAMPs" sheetId="5" r:id="rId5"/>
     <sheet name="LEDs" sheetId="6" r:id="rId6"/>
+    <sheet name="No clasificados" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="486">
   <si>
     <t>Número de parte</t>
   </si>
@@ -1236,15 +1237,6 @@
     <t>1.5m</t>
   </si>
   <si>
-    <t>MAX492ESA+T</t>
-  </si>
-  <si>
-    <t>500u</t>
-  </si>
-  <si>
-    <t>60n</t>
-  </si>
-  <si>
     <t>AD648KRZ</t>
   </si>
   <si>
@@ -1299,9 +1291,6 @@
     <t>28m</t>
   </si>
   <si>
-    <t>MAX494ESD+T</t>
-  </si>
-  <si>
     <t>AD8544WARZ-R7</t>
   </si>
   <si>
@@ -1365,9 +1354,6 @@
     <t>Verde</t>
   </si>
   <si>
-    <t>LY P47K-J1L2-26</t>
-  </si>
-  <si>
     <t>Amarillo</t>
   </si>
   <si>
@@ -1465,13 +1451,85 @@
   </si>
   <si>
     <t>4.6m</t>
+  </si>
+  <si>
+    <t>MAX4402AKA/V+T</t>
+  </si>
+  <si>
+    <t>800k</t>
+  </si>
+  <si>
+    <t>100f</t>
+  </si>
+  <si>
+    <t>SSSF021500</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>B3SL-1022P</t>
+  </si>
+  <si>
+    <t>Botón</t>
+  </si>
+  <si>
+    <t>12401832E402A</t>
+  </si>
+  <si>
+    <t>Conector USB</t>
+  </si>
+  <si>
+    <t>WJ128V-5.0-6P</t>
+  </si>
+  <si>
+    <t>Screw terminal block</t>
+  </si>
+  <si>
+    <t>3296W-1-203LF</t>
+  </si>
+  <si>
+    <t>Potenciómetro</t>
+  </si>
+  <si>
+    <t>RLB1014-104KL</t>
+  </si>
+  <si>
+    <t>Bobina de poder</t>
+  </si>
+  <si>
+    <t>RVT1H470M0607</t>
+  </si>
+  <si>
+    <t>Capacitor bulk</t>
+  </si>
+  <si>
+    <t>Conector XT30</t>
+  </si>
+  <si>
+    <t>XT30UPB-M</t>
+  </si>
+  <si>
+    <t>OP496GSZ</t>
+  </si>
+  <si>
+    <t>450k</t>
+  </si>
+  <si>
+    <t>300u</t>
+  </si>
+  <si>
+    <t>50n</t>
+  </si>
+  <si>
+    <t>LY T67K-J2M1-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1515,6 +1573,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1536,7 +1606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1554,6 +1624,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2401,9 +2474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEBF3B-4C72-4C22-8C79-512894A2A873}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2460,12 +2533,12 @@
         <v>74</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -2483,7 +2556,7 @@
         <v>74</v>
       </c>
       <c r="G3" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2506,7 +2579,7 @@
         <v>74</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2529,7 +2602,7 @@
         <v>74</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2552,7 +2625,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2575,7 +2648,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2598,7 +2671,7 @@
         <v>74</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2621,7 +2694,7 @@
         <v>74</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2644,7 +2717,7 @@
         <v>74</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2667,7 +2740,7 @@
         <v>74</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2690,7 +2763,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2713,7 +2786,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2736,7 +2809,7 @@
         <v>74</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2759,7 +2832,7 @@
         <v>74</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2782,7 +2855,7 @@
         <v>74</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2805,7 +2878,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2828,7 +2901,7 @@
         <v>74</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2851,7 +2924,7 @@
         <v>74</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2874,7 +2947,7 @@
         <v>74</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2897,7 +2970,7 @@
         <v>74</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2920,7 +2993,7 @@
         <v>74</v>
       </c>
       <c r="G22" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2943,7 +3016,7 @@
         <v>74</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2966,7 +3039,7 @@
         <v>74</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2989,7 +3062,7 @@
         <v>74</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3012,7 +3085,7 @@
         <v>74</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3035,7 +3108,7 @@
         <v>74</v>
       </c>
       <c r="G27" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3058,7 +3131,7 @@
         <v>74</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3081,7 +3154,7 @@
         <v>74</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3104,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -3127,7 +3200,7 @@
         <v>74</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -3150,7 +3223,7 @@
         <v>74</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3173,7 +3246,7 @@
         <v>74</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3196,7 +3269,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3219,7 +3292,7 @@
         <v>74</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3242,7 +3315,7 @@
         <v>74</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3265,7 +3338,7 @@
         <v>74</v>
       </c>
       <c r="G37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3288,7 +3361,7 @@
         <v>74</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3311,7 +3384,7 @@
         <v>74</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3334,7 +3407,7 @@
         <v>74</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3357,7 +3430,7 @@
         <v>74</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3380,7 +3453,7 @@
         <v>74</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3405,9 +3478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205CF36-A0B2-46BE-A22B-1B8CB93B9542}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+    <sheetView zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4957,7 +5030,7 @@
         <v>82</v>
       </c>
       <c r="I53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4986,7 +5059,7 @@
         <v>82</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -5015,7 +5088,7 @@
         <v>82</v>
       </c>
       <c r="I55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -5044,7 +5117,7 @@
         <v>82</v>
       </c>
       <c r="I56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -5073,7 +5146,7 @@
         <v>82</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -5131,7 +5204,7 @@
         <v>82</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -5160,7 +5233,7 @@
         <v>82</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -5189,7 +5262,7 @@
         <v>82</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -5247,7 +5320,7 @@
         <v>82</v>
       </c>
       <c r="I63" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -5255,7 +5328,7 @@
         <v>206</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C64" s="3">
         <v>20</v>
@@ -5276,7 +5349,7 @@
         <v>82</v>
       </c>
       <c r="I64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -5284,7 +5357,7 @@
         <v>207</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C65" s="3">
         <v>20</v>
@@ -5305,7 +5378,7 @@
         <v>82</v>
       </c>
       <c r="I65" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5329,7 +5402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85404F1D-3E5E-4D66-9A35-71A1D2CD5641}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="131" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -6930,9 +7003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D930AD8F-3E56-42DC-B88D-0B20D209FC4D}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7464,8 +7537,8 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7760,7 +7833,7 @@
         <v>363</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7795,33 +7868,33 @@
         <v>363</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>233</v>
+        <v>463</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>392</v>
+        <v>464</v>
       </c>
       <c r="G10" s="3">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H10" s="3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>362</v>
@@ -7830,12 +7903,12 @@
         <v>363</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -7850,7 +7923,7 @@
         <v>203</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G11" s="3">
         <v>76</v>
@@ -7870,7 +7943,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -7905,7 +7978,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -7920,7 +7993,7 @@
         <v>377</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G13" s="3">
         <v>90</v>
@@ -7935,12 +8008,12 @@
         <v>363</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -7955,7 +8028,7 @@
         <v>305</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G14" s="3">
         <v>90</v>
@@ -7975,13 +8048,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D15" s="3">
         <v>650</v>
@@ -7990,7 +8063,7 @@
         <v>305</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G15" s="3">
         <v>80</v>
@@ -8010,22 +8083,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D16" s="3">
         <v>170</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G16" s="3">
         <v>88</v>
@@ -8040,27 +8113,27 @@
         <v>363</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D17" s="3">
         <v>210</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G17" s="3">
         <v>88</v>
@@ -8080,7 +8153,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
@@ -8089,7 +8162,7 @@
         <v>387</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>195</v>
@@ -8110,33 +8183,33 @@
         <v>363</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>411</v>
+        <v>481</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>391</v>
+        <v>483</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>392</v>
+        <v>484</v>
       </c>
       <c r="G19" s="3">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H19" s="3">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>362</v>
@@ -8145,12 +8218,12 @@
         <v>363</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
@@ -8159,13 +8232,13 @@
         <v>70</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>305</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G20" s="3">
         <v>45</v>
@@ -8185,7 +8258,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -8220,7 +8293,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -8235,7 +8308,7 @@
         <v>377</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G22" s="3">
         <v>90</v>
@@ -8255,22 +8328,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D23" s="3">
         <v>62</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G23" s="3">
         <v>80</v>
@@ -8290,22 +8363,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D24" s="3">
         <v>170</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G24" s="3">
         <v>88</v>
@@ -8334,8 +8407,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8344,9 +8418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A95F01-B128-436C-9F73-5C18FF680B8D}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="129" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8368,13 +8442,13 @@
         <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>73</v>
@@ -8385,13 +8459,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>271</v>
@@ -8400,7 +8474,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -8408,13 +8482,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>271</v>
@@ -8423,21 +8497,21 @@
         <v>2.7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>271</v>
@@ -8446,44 +8520,44 @@
         <v>1.9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>271</v>
+        <v>439</v>
       </c>
       <c r="E5" s="3">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>271</v>
@@ -8492,21 +8566,21 @@
         <v>2.7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>271</v>
@@ -8515,21 +8589,21 @@
         <v>1.8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>271</v>
@@ -8538,21 +8612,21 @@
         <v>1.8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>271</v>
@@ -8561,44 +8635,44 @@
         <v>1.8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E10" s="3">
         <v>2.4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>271</v>
@@ -8607,21 +8681,21 @@
         <v>1.9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>240</v>
@@ -8630,44 +8704,44 @@
         <v>2.7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E13" s="3">
         <v>2.8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>271</v>
@@ -8676,21 +8750,21 @@
         <v>2.8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>259</v>
@@ -8699,21 +8773,21 @@
         <v>2.7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>255</v>
@@ -8722,67 +8796,67 @@
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E17" s="3">
         <v>3.2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E18" s="3">
         <v>1.6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>309</v>
@@ -8791,10 +8865,10 @@
         <v>1.5</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -8812,4 +8886,87 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081F05B9-1E94-428E-A64E-FFAE895AC322}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Librería de componentes.xlsx
+++ b/Librería de componentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUNELY\Desktop\ITLA\Décimo segundo cuatrimestre\Electiva Mecatrónica - Diseño Mecatrónico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094717F-15D4-4A5E-8A8C-7AB34A223239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A2AE2-DE3F-49ED-AF3A-42286E71340F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencias" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Transistores" sheetId="4" r:id="rId4"/>
     <sheet name="OPAMPs" sheetId="5" r:id="rId5"/>
     <sheet name="LEDs" sheetId="6" r:id="rId6"/>
-    <sheet name="No clasificados" sheetId="7" r:id="rId7"/>
+    <sheet name="Varistores" sheetId="8" r:id="rId7"/>
+    <sheet name="Diodos TVS" sheetId="9" r:id="rId8"/>
+    <sheet name="No clasificados" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="534">
   <si>
     <t>Número de parte</t>
   </si>
@@ -57,9 +59,6 @@
   </si>
   <si>
     <t>Tolerancia (%)</t>
-  </si>
-  <si>
-    <t>Coeficiente de tempratura (PPM/C)</t>
   </si>
   <si>
     <t>TNPW121010R0FEEA</t>
@@ -1523,6 +1522,153 @@
   </si>
   <si>
     <t>LY T67K-J2M1-26</t>
+  </si>
+  <si>
+    <t>Voltaje nominal (v)</t>
+  </si>
+  <si>
+    <t>Voltaje de clamping (v)</t>
+  </si>
+  <si>
+    <t>Régimen de voltaje DC (v)</t>
+  </si>
+  <si>
+    <t>V8ZA2P</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>Coeficiente de tempratura (PPM/°C)</t>
+  </si>
+  <si>
+    <t>V9MLA0603NH</t>
+  </si>
+  <si>
+    <t>Régimen de voltaje AC (v)</t>
+  </si>
+  <si>
+    <t>V12MLA0805LNHAUTO</t>
+  </si>
+  <si>
+    <t>V22MA1A</t>
+  </si>
+  <si>
+    <t>V24AUMLA2220H</t>
+  </si>
+  <si>
+    <t>V27MA1A</t>
+  </si>
+  <si>
+    <t>V39ZA1P</t>
+  </si>
+  <si>
+    <t>V100ZA15P</t>
+  </si>
+  <si>
+    <t>V130LA20BP</t>
+  </si>
+  <si>
+    <t>V430MA3A</t>
+  </si>
+  <si>
+    <t>V20E385P</t>
+  </si>
+  <si>
+    <t>V20E440P</t>
+  </si>
+  <si>
+    <t>Voltaje de funcionamiento inverso (v)</t>
+  </si>
+  <si>
+    <t>SMF3.3</t>
+  </si>
+  <si>
+    <t>Unidireccional</t>
+  </si>
+  <si>
+    <t>SP3031-01ETG</t>
+  </si>
+  <si>
+    <t>SMF4L9.0A</t>
+  </si>
+  <si>
+    <t>TPSMB12A-VR</t>
+  </si>
+  <si>
+    <t>SPHV15-01ETG</t>
+  </si>
+  <si>
+    <t>SMA6J24A</t>
+  </si>
+  <si>
+    <t>SACB10</t>
+  </si>
+  <si>
+    <t>SP3401-02UTG</t>
+  </si>
+  <si>
+    <t>SM05-02HTG</t>
+  </si>
+  <si>
+    <t>SP4010-02HTG</t>
+  </si>
+  <si>
+    <t>SM12-02HTG</t>
+  </si>
+  <si>
+    <t>SM15-02HTG</t>
+  </si>
+  <si>
+    <t>SM24-02HTG</t>
+  </si>
+  <si>
+    <t>SP3420-04UTG</t>
+  </si>
+  <si>
+    <t>SP3019-04HTG</t>
+  </si>
+  <si>
+    <t>SP4065-08ATG</t>
+  </si>
+  <si>
+    <t>SP7538PUTG</t>
+  </si>
+  <si>
+    <t>SC1533-01FTG</t>
+  </si>
+  <si>
+    <t>Bidireccional</t>
+  </si>
+  <si>
+    <t>SP4337-01WTG</t>
+  </si>
+  <si>
+    <t>SESD0201X1BN-0010-098</t>
+  </si>
+  <si>
+    <t>TPSMB12CA-VR</t>
+  </si>
+  <si>
+    <t>PGB2010201KR-15NR</t>
+  </si>
+  <si>
+    <t>SP4338-02WTG</t>
+  </si>
+  <si>
+    <t>SP712-02HTG</t>
+  </si>
+  <si>
+    <t>AQ15-02HTG</t>
+  </si>
+  <si>
+    <t>AQ24-02HTG</t>
+  </si>
+  <si>
+    <t>SP1015-04WTG</t>
+  </si>
+  <si>
+    <t>SP1012-05WTG</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1627,11 +1773,100 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="75">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2053,103 +2288,135 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{36E12380-37CE-400D-B2F7-9E38CEE17764}" name="Tabla20" displayName="Tabla20" ref="A1:G42" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{36E12380-37CE-400D-B2F7-9E38CEE17764}" name="Tabla20" displayName="Tabla20" ref="A1:G42" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A1:G42" xr:uid="{36E12380-37CE-400D-B2F7-9E38CEE17764}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{796517A2-73C5-4AF6-A4B5-753C303D8BE0}" name="Número de parte" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{3D9D4BAA-0B2E-4274-A6C0-FD18ED42728F}" name="Valor (Ω)" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{71C72941-6CCE-4564-89D6-759C10E7E45F}" name="Tolerancia (%)" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{74C25F89-FC78-43D5-BA38-77C1FEF1B16D}" name="Potencia (W)" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{BAD468FB-A718-4770-868F-253225E6AFAA}" name="Coeficiente de tempratura (PPM/C)" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{2CEBA80D-0FDB-4E1D-9BA1-BE811ACC912B}" name="Fabricante" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{F4BC416D-0CF7-483A-8FDF-B0E6E2C4B348}" name="Agregado" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{796517A2-73C5-4AF6-A4B5-753C303D8BE0}" name="Número de parte" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{3D9D4BAA-0B2E-4274-A6C0-FD18ED42728F}" name="Valor (Ω)" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{71C72941-6CCE-4564-89D6-759C10E7E45F}" name="Tolerancia (%)" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{74C25F89-FC78-43D5-BA38-77C1FEF1B16D}" name="Potencia (W)" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{BAD468FB-A718-4770-868F-253225E6AFAA}" name="Coeficiente de tempratura (PPM/°C)" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{2CEBA80D-0FDB-4E1D-9BA1-BE811ACC912B}" name="Fabricante" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{F4BC416D-0CF7-483A-8FDF-B0E6E2C4B348}" name="Agregado" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{094A1CDA-BED8-4FA8-B90D-2F30FF900E97}" name="Tabla21" displayName="Tabla21" ref="A1:I65" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{094A1CDA-BED8-4FA8-B90D-2F30FF900E97}" name="Tabla21" displayName="Tabla21" ref="A1:I65" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:I65" xr:uid="{094A1CDA-BED8-4FA8-B90D-2F30FF900E97}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F9621106-4CBA-485E-A6A7-F959B9D5BAA4}" name="Número de parte" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{727F9A12-8C4D-45B2-BA2C-2741DB2339B7}" name="Valor (F)" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{0B9ADF9C-C80E-439B-8F1B-45EB641545E9}" name="Tolerancia (%)" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{1D7059B7-9582-4653-8FD0-0833B6574001}" name="Voltaje (v)" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{6A418381-1452-4BB9-B8E9-C7D591A975F4}" name="Tipo de voltaje" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{B7BE1B50-568D-415D-8701-DB0BF62EA996}" name="Vida útil (horas)" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{CD39A474-7F91-47B0-A6C8-DA36A387B50D}" name="Tipo" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{F8C3E44C-4CFE-45BA-A2C5-6E552212B32F}" name="Fabricante" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{AED96924-7F26-4825-8814-2F9A40A1BDD9}" name="Agregado" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{F9621106-4CBA-485E-A6A7-F959B9D5BAA4}" name="Número de parte" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{727F9A12-8C4D-45B2-BA2C-2741DB2339B7}" name="Valor (F)" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{0B9ADF9C-C80E-439B-8F1B-45EB641545E9}" name="Tolerancia (%)" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{1D7059B7-9582-4653-8FD0-0833B6574001}" name="Voltaje (v)" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{6A418381-1452-4BB9-B8E9-C7D591A975F4}" name="Tipo de voltaje" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{B7BE1B50-568D-415D-8701-DB0BF62EA996}" name="Vida útil (horas)" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{CD39A474-7F91-47B0-A6C8-DA36A387B50D}" name="Tipo" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{F8C3E44C-4CFE-45BA-A2C5-6E552212B32F}" name="Fabricante" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{AED96924-7F26-4825-8814-2F9A40A1BDD9}" name="Agregado" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{81AEC8DF-CB6F-4A4A-A3CD-ACA34366D852}" name="Tabla22" displayName="Tabla22" ref="A1:G68" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{81AEC8DF-CB6F-4A4A-A3CD-ACA34366D852}" name="Tabla22" displayName="Tabla22" ref="A1:G68" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:G68" xr:uid="{81AEC8DF-CB6F-4A4A-A3CD-ACA34366D852}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{21F9D534-4783-4EA9-A890-5356620CE1BC}" name="Número de parte" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{E9668112-3805-4143-B6C1-87C87AB0E5A0}" name="Valor (H)" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{8F8A61A6-8021-4596-951C-765370CEAB10}" name="Tolerancia (%)" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{0C85D6BC-C464-41C2-9A72-6D06275FE232}" name="Corriente (A)" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{32972288-40B5-4DD9-9215-18531D5D3838}" name="Tipo" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{37F575D6-0780-47B8-924C-3AAA92F10605}" name="Fabricante" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{7708C74C-21CF-4A9B-85E2-21F6925251D1}" name="Agregado" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{21F9D534-4783-4EA9-A890-5356620CE1BC}" name="Número de parte" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{E9668112-3805-4143-B6C1-87C87AB0E5A0}" name="Valor (H)" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{8F8A61A6-8021-4596-951C-765370CEAB10}" name="Tolerancia (%)" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{0C85D6BC-C464-41C2-9A72-6D06275FE232}" name="Corriente (A)" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{32972288-40B5-4DD9-9215-18531D5D3838}" name="Tipo" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{37F575D6-0780-47B8-924C-3AAA92F10605}" name="Fabricante" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{7708C74C-21CF-4A9B-85E2-21F6925251D1}" name="Agregado" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F9ABAB21-2534-4602-B505-BC400EFEBC75}" name="Tabla23" displayName="Tabla23" ref="A1:H19" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F9ABAB21-2534-4602-B505-BC400EFEBC75}" name="Tabla23" displayName="Tabla23" ref="A1:H19" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:H19" xr:uid="{F9ABAB21-2534-4602-B505-BC400EFEBC75}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7261B210-8024-41E8-A775-16C44D2F1D76}" name="Número de parte" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{4DFEE4F8-7545-4360-A64D-34145DA5CC52}" name="Tecnología" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{78713A6B-7197-45D9-A9B6-7011366C51D0}" name="Polaridad" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{AC2D5852-5116-4A1D-8B2F-784159912DDC}" name="Vgs-th (v)" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{CC022B58-04A3-4687-9C74-5DC2DB6801FD}" name="Id (A)" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{8D220D3F-D36D-4D32-8C07-F4720A934B43}" name="Potencia (W)" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{A536371A-B0C9-4273-86B9-3C8562768D0C}" name="Fabricante" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{C04B2730-F623-48A3-83DC-3C4DCC77E821}" name="Agregado" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{7261B210-8024-41E8-A775-16C44D2F1D76}" name="Número de parte" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{4DFEE4F8-7545-4360-A64D-34145DA5CC52}" name="Tecnología" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{78713A6B-7197-45D9-A9B6-7011366C51D0}" name="Polaridad" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{AC2D5852-5116-4A1D-8B2F-784159912DDC}" name="Vgs-th (v)" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{CC022B58-04A3-4687-9C74-5DC2DB6801FD}" name="Id (A)" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{8D220D3F-D36D-4D32-8C07-F4720A934B43}" name="Potencia (W)" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{A536371A-B0C9-4273-86B9-3C8562768D0C}" name="Fabricante" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{C04B2730-F623-48A3-83DC-3C4DCC77E821}" name="Agregado" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09DA8278-2C34-4B6A-A4CA-7021EBA20E50}" name="Tabla1" displayName="Tabla1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09DA8278-2C34-4B6A-A4CA-7021EBA20E50}" name="Tabla1" displayName="Tabla1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="A1:K24" xr:uid="{09DA8278-2C34-4B6A-A4CA-7021EBA20E50}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{58FAEC82-F545-4514-90AE-A369462CDBBB}" name="Número de parte" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{5DBA8552-3120-475C-8425-9731B118110B}" name="Número de canales" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{C2E244AC-6D77-4E9A-8E8A-D89035066801}" name="GBP (Hz)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{04404135-0172-4355-B2F5-891D1D9ED7E0}" name="SR (V/us)" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{191252CC-C9A5-4CA0-8918-575B4C09B8A6}" name="Vos (v)" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{AE24A5EC-088C-45C1-9644-DA268BC6476D}" name="Ib (A)" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{C249C104-F989-44A2-A64E-E813DEA98B11}" name="CMRR (dB)" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{7A7E4EA6-A42A-475D-A905-C54CEC54A524}" name="Vdd Min (v)" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{79A8A6BF-17ED-4896-A155-E6469BA290D5}" name="Shutdown" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{B4B1C7E7-9902-4C6C-A4AE-33E3112E41EB}" name="Fabricante" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{4F3F7923-A534-4548-BFC3-FE0E9F6DC0F4}" name="Agregado" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{58FAEC82-F545-4514-90AE-A369462CDBBB}" name="Número de parte" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{5DBA8552-3120-475C-8425-9731B118110B}" name="Número de canales" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{C2E244AC-6D77-4E9A-8E8A-D89035066801}" name="GBP (Hz)" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{04404135-0172-4355-B2F5-891D1D9ED7E0}" name="SR (V/us)" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{191252CC-C9A5-4CA0-8918-575B4C09B8A6}" name="Vos (v)" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{AE24A5EC-088C-45C1-9644-DA268BC6476D}" name="Ib (A)" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{C249C104-F989-44A2-A64E-E813DEA98B11}" name="CMRR (dB)" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{7A7E4EA6-A42A-475D-A905-C54CEC54A524}" name="Vdd Min (v)" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{79A8A6BF-17ED-4896-A155-E6469BA290D5}" name="Shutdown" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{B4B1C7E7-9902-4C6C-A4AE-33E3112E41EB}" name="Fabricante" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{4F3F7923-A534-4548-BFC3-FE0E9F6DC0F4}" name="Agregado" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{023E6829-DD87-4FA7-96B8-1BFC5CCD21DC}" name="Tabla2" displayName="Tabla2" ref="A1:G19" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{023E6829-DD87-4FA7-96B8-1BFC5CCD21DC}" name="Tabla2" displayName="Tabla2" ref="A1:G19" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:G19" xr:uid="{023E6829-DD87-4FA7-96B8-1BFC5CCD21DC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7515C610-5E3F-42F9-8501-2D2EDCA55BCE}" name="Número de parte" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B173C153-CAD7-4BDF-A23A-1EB489E8CC83}" name="Tipo" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FDB92C91-4AF9-46CC-A327-F8D36651BBDE}" name="Color" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8A825971-791A-4AE6-8654-BA68481D1179}" name="If (A)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{59EFFF63-6DFA-4B82-8594-5B3FF346B104}" name="Vf (v)" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{026EFAF6-D203-4518-BDD2-BD1350FE05B6}" name="Fabricante" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{896C9BE1-ACEC-4383-856E-D1ACADB6C3CE}" name="Agregado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7515C610-5E3F-42F9-8501-2D2EDCA55BCE}" name="Número de parte" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{B173C153-CAD7-4BDF-A23A-1EB489E8CC83}" name="Tipo" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{FDB92C91-4AF9-46CC-A327-F8D36651BBDE}" name="Color" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8A825971-791A-4AE6-8654-BA68481D1179}" name="If (A)" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{59EFFF63-6DFA-4B82-8594-5B3FF346B104}" name="Vf (v)" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{026EFAF6-D203-4518-BDD2-BD1350FE05B6}" name="Fabricante" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{896C9BE1-ACEC-4383-856E-D1ACADB6C3CE}" name="Agregado" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE6083F5-018E-418B-8B51-B916D28E2081}" name="Tabla4" displayName="Tabla4" ref="A1:G13" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:G13" xr:uid="{FE6083F5-018E-418B-8B51-B916D28E2081}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2ACD02F3-79A3-412C-BE2C-359C02E7E3A3}" name="Número de parte" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{5E931349-4C50-44B6-B30F-C9EE486E8549}" name="Régimen de voltaje DC (v)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{E36A61CD-E6DD-47E2-8240-20587A8BFC67}" name="Régimen de voltaje AC (v)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{215AB8C3-64B0-490F-B05C-4AD85E4ECA31}" name="Voltaje nominal (v)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{ACC4B9ED-D78B-4343-8E6F-DDA5D1437407}" name="Voltaje de clamping (v)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2B148F2A-73FC-41AE-92D0-F85C298B0A60}" name="Fabricante" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{475FDE14-0D24-445C-A1A9-A79B0E37D179}" name="Agregado" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3DCF58C9-89EC-4977-A4E3-43745AE5FF9D}" name="Tabla5" displayName="Tabla5" ref="A1:G29" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G29" xr:uid="{3DCF58C9-89EC-4977-A4E3-43745AE5FF9D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{53A69C14-5DEB-49AB-9258-FAAFBD39ECC2}" name="Número de parte" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{39429860-77CB-4757-9DCB-8D2E7025D3E1}" name="Número de canales" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AE3CB88F-93BA-40DD-9A0F-6CB8D6E3570F}" name="Voltaje de funcionamiento inverso (v)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9A598FD6-4642-414E-BA64-7363149797E0}" name="Voltaje de clamping (v)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7566AECE-A43D-44FF-BFD1-55F391C02244}" name="Polaridad" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A9D5754E-9E77-4926-80D6-5E395FD051F4}" name="Fabricante" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{37DC1A17-AF40-4354-BF49-1D73FC5D0D0A}" name="Agregado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2475,8 +2742,8 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,17 +2752,17 @@
     <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="44" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -2503,19 +2770,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
+      <c r="E1" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -2530,7 +2797,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -2538,7 +2805,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -2553,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -2561,7 +2828,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>120</v>
@@ -2576,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -2584,7 +2851,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>220</v>
@@ -2599,7 +2866,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -2607,7 +2874,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>330</v>
@@ -2622,7 +2889,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -2630,7 +2897,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>470</v>
@@ -2645,7 +2912,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -2653,7 +2920,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>510</v>
@@ -2668,7 +2935,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -2676,7 +2943,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>560</v>
@@ -2691,7 +2958,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -2699,7 +2966,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>680</v>
@@ -2714,7 +2981,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -2722,7 +2989,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>820</v>
@@ -2737,7 +3004,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -2760,7 +3027,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -2768,7 +3035,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
@@ -2783,7 +3050,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2791,10 +3058,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>0.1</v>
@@ -2806,7 +3073,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -2814,10 +3081,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3">
         <v>0.5</v>
@@ -2829,7 +3096,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2837,10 +3104,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3">
         <v>0.1</v>
@@ -2852,7 +3119,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -2860,10 +3127,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>0.1</v>
@@ -2875,7 +3142,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -2883,10 +3150,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
         <v>0.1</v>
@@ -2898,7 +3165,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -2906,10 +3173,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3">
         <v>0.1</v>
@@ -2921,7 +3188,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -2929,10 +3196,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3">
         <v>0.1</v>
@@ -2944,7 +3211,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -2952,10 +3219,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3">
         <v>0.1</v>
@@ -2967,7 +3234,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -2975,10 +3242,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3">
         <v>0.5</v>
@@ -2990,7 +3257,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -2998,10 +3265,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3">
         <v>0.1</v>
@@ -3013,7 +3280,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -3021,10 +3288,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C24" s="3">
         <v>0.1</v>
@@ -3036,7 +3303,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -3044,10 +3311,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>0.1</v>
@@ -3059,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -3067,10 +3334,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C26" s="3">
         <v>0.1</v>
@@ -3082,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
@@ -3090,10 +3357,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C27" s="3">
         <v>0.1</v>
@@ -3105,7 +3372,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -3113,10 +3380,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C28" s="3">
         <v>0.1</v>
@@ -3128,7 +3395,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -3136,10 +3403,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C29" s="3">
         <v>0.1</v>
@@ -3151,7 +3418,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -3159,10 +3426,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C30" s="3">
         <v>0.1</v>
@@ -3174,7 +3441,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -3182,10 +3449,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C31" s="3">
         <v>0.5</v>
@@ -3197,7 +3464,7 @@
         <v>25</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -3205,10 +3472,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C32" s="3">
         <v>0.1</v>
@@ -3220,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -3228,10 +3495,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3">
         <v>0.5</v>
@@ -3243,7 +3510,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -3251,10 +3518,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C34" s="3">
         <v>0.1</v>
@@ -3266,7 +3533,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -3274,10 +3541,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C35" s="3">
         <v>0.1</v>
@@ -3289,7 +3556,7 @@
         <v>25</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -3297,10 +3564,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C36" s="3">
         <v>0.5</v>
@@ -3312,7 +3579,7 @@
         <v>25</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -3320,10 +3587,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C37" s="3">
         <v>0.5</v>
@@ -3335,7 +3602,7 @@
         <v>25</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
@@ -3343,10 +3610,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C38" s="3">
         <v>0.5</v>
@@ -3358,7 +3625,7 @@
         <v>25</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -3366,10 +3633,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C39" s="3">
         <v>0.1</v>
@@ -3381,7 +3648,7 @@
         <v>25</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
@@ -3389,10 +3656,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C40" s="3">
         <v>0.1</v>
@@ -3404,7 +3671,7 @@
         <v>25</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -3412,10 +3679,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="3">
         <v>0.5</v>
@@ -3427,7 +3694,7 @@
         <v>25</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -3435,10 +3702,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C42" s="3">
         <v>0.5</v>
@@ -3450,7 +3717,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -3479,7 +3746,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -3489,48 +3756,48 @@
     <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.21875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="18.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C2" s="3">
         <v>20</v>
@@ -3539,16 +3806,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -3556,10 +3823,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -3568,16 +3835,16 @@
         <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -3585,10 +3852,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -3597,16 +3864,16 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -3614,10 +3881,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -3626,16 +3893,16 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -3643,10 +3910,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -3655,16 +3922,16 @@
         <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -3672,10 +3939,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -3684,16 +3951,16 @@
         <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -3701,10 +3968,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -3713,16 +3980,16 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -3730,10 +3997,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -3742,16 +4009,16 @@
         <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -3759,10 +4026,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -3771,16 +4038,16 @@
         <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -3788,10 +4055,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -3800,16 +4067,16 @@
         <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -3817,10 +4084,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -3829,16 +4096,16 @@
         <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -3846,10 +4113,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -3858,16 +4125,16 @@
         <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -3875,10 +4142,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -3887,16 +4154,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -3904,10 +4171,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -3916,16 +4183,16 @@
         <v>50</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -3933,10 +4200,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -3945,16 +4212,16 @@
         <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -3962,10 +4229,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
@@ -3974,16 +4241,16 @@
         <v>50</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -3991,10 +4258,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -4003,16 +4270,16 @@
         <v>50</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -4020,10 +4287,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -4032,16 +4299,16 @@
         <v>50</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -4049,10 +4316,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -4061,16 +4328,16 @@
         <v>50</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -4078,10 +4345,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -4090,16 +4357,16 @@
         <v>50</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -4107,10 +4374,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
@@ -4119,16 +4386,16 @@
         <v>50</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
@@ -4136,10 +4403,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -4148,16 +4415,16 @@
         <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
@@ -4165,10 +4432,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
@@ -4177,16 +4444,16 @@
         <v>50</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
@@ -4194,10 +4461,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -4206,16 +4473,16 @@
         <v>50</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -4223,10 +4490,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -4235,16 +4502,16 @@
         <v>50</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
@@ -4252,10 +4519,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -4264,16 +4531,16 @@
         <v>50</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
@@ -4281,10 +4548,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -4293,16 +4560,16 @@
         <v>50</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -4310,10 +4577,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -4322,16 +4589,16 @@
         <v>50</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
@@ -4339,10 +4606,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
@@ -4351,16 +4618,16 @@
         <v>50</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
@@ -4368,10 +4635,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C31" s="3">
         <v>5</v>
@@ -4380,16 +4647,16 @@
         <v>50</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
@@ -4397,10 +4664,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -4409,16 +4676,16 @@
         <v>200</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
@@ -4426,10 +4693,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
@@ -4438,16 +4705,16 @@
         <v>100</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
@@ -4455,10 +4722,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C34" s="3">
         <v>5</v>
@@ -4467,16 +4734,16 @@
         <v>50</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
@@ -4484,10 +4751,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C35" s="3">
         <v>5</v>
@@ -4496,16 +4763,16 @@
         <v>50</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I35" s="3">
         <v>1</v>
@@ -4513,10 +4780,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
@@ -4525,16 +4792,16 @@
         <v>50</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
@@ -4542,10 +4809,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
@@ -4554,16 +4821,16 @@
         <v>50</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
@@ -4571,10 +4838,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
@@ -4583,16 +4850,16 @@
         <v>50</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I38" s="3">
         <v>1</v>
@@ -4600,10 +4867,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -4612,16 +4879,16 @@
         <v>50</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -4629,10 +4896,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
@@ -4641,16 +4908,16 @@
         <v>50</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I40" s="3">
         <v>1</v>
@@ -4658,10 +4925,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
@@ -4670,16 +4937,16 @@
         <v>50</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I41" s="3">
         <v>1</v>
@@ -4687,10 +4954,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="C42" s="3">
         <v>5</v>
@@ -4699,16 +4966,16 @@
         <v>50</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
@@ -4716,10 +4983,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="C43" s="3">
         <v>5</v>
@@ -4728,16 +4995,16 @@
         <v>50</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
@@ -4745,10 +5012,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C44" s="3">
         <v>5</v>
@@ -4757,16 +5024,16 @@
         <v>50</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
@@ -4774,10 +5041,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C45" s="3">
         <v>5</v>
@@ -4786,16 +5053,16 @@
         <v>50</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
@@ -4803,10 +5070,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -4815,16 +5082,16 @@
         <v>50</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
@@ -4832,10 +5099,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="3">
         <v>20</v>
@@ -4844,16 +5111,16 @@
         <v>50</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" s="3">
         <v>3000</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
@@ -4861,10 +5128,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="3">
         <v>20</v>
@@ -4873,16 +5140,16 @@
         <v>50</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F48" s="3">
         <v>3000</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48" s="3">
         <v>1</v>
@@ -4890,10 +5157,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C49" s="3">
         <v>20</v>
@@ -4902,16 +5169,16 @@
         <v>50</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F49" s="3">
         <v>3000</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="3">
         <v>1</v>
@@ -4919,10 +5186,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C50" s="3">
         <v>20</v>
@@ -4931,16 +5198,16 @@
         <v>50</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50" s="3">
         <v>3000</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50" s="3">
         <v>1</v>
@@ -4948,10 +5215,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="C51" s="3">
         <v>20</v>
@@ -4960,16 +5227,16 @@
         <v>50</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" s="3">
         <v>2000</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51" s="3">
         <v>1</v>
@@ -4977,10 +5244,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C52" s="3">
         <v>20</v>
@@ -4989,16 +5256,16 @@
         <v>50</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F52" s="3">
         <v>3000</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52" s="3">
         <v>1</v>
@@ -5006,10 +5273,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="C53" s="3">
         <v>20</v>
@@ -5018,16 +5285,16 @@
         <v>50</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F53" s="3">
         <v>3000</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I53" s="3">
         <v>1</v>
@@ -5035,10 +5302,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="C54" s="3">
         <v>20</v>
@@ -5047,16 +5314,16 @@
         <v>50</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54" s="3">
         <v>5000</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -5064,10 +5331,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C55" s="3">
         <v>20</v>
@@ -5076,16 +5343,16 @@
         <v>50</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F55" s="3">
         <v>5000</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55" s="3">
         <v>1</v>
@@ -5093,10 +5360,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="C56" s="3">
         <v>20</v>
@@ -5105,16 +5372,16 @@
         <v>50</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" s="3">
         <v>5000</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56" s="3">
         <v>1</v>
@@ -5122,10 +5389,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C57" s="3">
         <v>20</v>
@@ -5134,16 +5401,16 @@
         <v>50</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="3">
         <v>5000</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57" s="3">
         <v>1</v>
@@ -5151,10 +5418,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="C58" s="3">
         <v>20</v>
@@ -5163,16 +5430,16 @@
         <v>50</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F58" s="3">
         <v>5000</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58" s="3">
         <v>1</v>
@@ -5180,10 +5447,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="C59" s="3">
         <v>20</v>
@@ -5192,16 +5459,16 @@
         <v>50</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F59" s="3">
         <v>5000</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59" s="3">
         <v>1</v>
@@ -5209,10 +5476,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="C60" s="3">
         <v>20</v>
@@ -5221,16 +5488,16 @@
         <v>63</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F60" s="3">
         <v>2000</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60" s="3">
         <v>1</v>
@@ -5238,10 +5505,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="C61" s="3">
         <v>20</v>
@@ -5250,16 +5517,16 @@
         <v>63</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="3">
         <v>6300</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61" s="3">
         <v>1</v>
@@ -5267,10 +5534,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C62" s="3">
         <v>20</v>
@@ -5279,16 +5546,16 @@
         <v>50</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F62" s="3">
         <v>2000</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I62" s="3">
         <v>1</v>
@@ -5296,10 +5563,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C63" s="3">
         <v>20</v>
@@ -5308,16 +5575,16 @@
         <v>40</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F63" s="3">
         <v>6300</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I63" s="3">
         <v>0.5</v>
@@ -5325,10 +5592,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C64" s="3">
         <v>20</v>
@@ -5337,16 +5604,16 @@
         <v>25</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F64" s="3">
         <v>6300</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I64" s="3">
         <v>1</v>
@@ -5354,10 +5621,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C65" s="3">
         <v>20</v>
@@ -5366,16 +5633,16 @@
         <v>25</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" s="3">
         <v>6300</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65" s="3">
         <v>0.5</v>
@@ -5423,30 +5690,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3">
         <v>10</v>
@@ -5455,10 +5722,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -5466,10 +5733,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
@@ -5478,10 +5745,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -5489,22 +5756,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -5512,22 +5779,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -5535,22 +5802,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -5558,22 +5825,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -5581,22 +5848,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -5604,7 +5871,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="3">
         <v>8.1999999999999993</v>
@@ -5613,13 +5880,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -5627,22 +5894,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -5650,22 +5917,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -5673,22 +5940,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -5696,22 +5963,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -5719,22 +5986,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -5742,22 +6009,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="3">
         <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -5765,22 +6032,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -5788,22 +6055,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="3">
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -5811,22 +6078,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -5834,22 +6101,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -5857,22 +6124,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -5880,22 +6147,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -5903,22 +6170,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C22" s="3">
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -5926,22 +6193,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
@@ -5949,22 +6216,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -5972,22 +6239,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="3">
         <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -5995,10 +6262,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="3">
         <v>20</v>
@@ -6007,10 +6274,10 @@
         <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
@@ -6018,22 +6285,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="3">
         <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -6041,10 +6308,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="3">
         <v>20</v>
@@ -6053,10 +6320,10 @@
         <v>8.4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -6064,22 +6331,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="3">
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -6087,10 +6354,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="3">
         <v>20</v>
@@ -6099,10 +6366,10 @@
         <v>9.5</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -6110,22 +6377,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -6133,10 +6400,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
@@ -6145,10 +6412,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -6156,22 +6423,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -6179,10 +6446,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" s="3">
         <v>30</v>
@@ -6191,10 +6458,10 @@
         <v>6.3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -6202,22 +6469,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="3">
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -6225,7 +6492,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="3">
         <v>6.8</v>
@@ -6237,10 +6504,10 @@
         <v>6.8</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -6248,22 +6515,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
@@ -6271,10 +6538,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="3">
         <v>10</v>
@@ -6283,10 +6550,10 @@
         <v>1.51</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -6294,22 +6561,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" s="3">
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
@@ -6317,10 +6584,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="3">
         <v>20</v>
@@ -6329,10 +6596,10 @@
         <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -6340,22 +6607,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C41" s="3">
         <v>20</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -6363,10 +6630,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42" s="3">
         <v>20</v>
@@ -6375,10 +6642,10 @@
         <v>6.9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -6386,22 +6653,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C43" s="3">
         <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -6409,10 +6676,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="3">
         <v>20</v>
@@ -6421,10 +6688,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -6432,22 +6699,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45" s="3">
         <v>20</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -6455,10 +6722,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46" s="3">
         <v>20</v>
@@ -6467,10 +6734,10 @@
         <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -6478,22 +6745,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="C47" s="3">
         <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -6501,22 +6768,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C48" s="3">
         <v>10</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -6524,22 +6791,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C49" s="3">
         <v>10</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -6547,10 +6814,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C50" s="3">
         <v>20</v>
@@ -6559,10 +6826,10 @@
         <v>3.4</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -6570,22 +6837,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="C51" s="3">
         <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -6593,22 +6860,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C52" s="3">
         <v>10</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -6616,22 +6883,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C53" s="3">
         <v>20</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
@@ -6639,10 +6906,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" s="3">
         <v>20</v>
@@ -6651,10 +6918,10 @@
         <v>1.8</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -6662,22 +6929,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" s="3">
         <v>20</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -6685,22 +6952,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" s="3">
         <v>20</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -6708,22 +6975,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" s="3">
         <v>20</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -6731,22 +6998,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C58" s="3">
         <v>10</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -6754,22 +7021,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="C59" s="3">
         <v>20</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -6777,22 +7044,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="C60" s="3">
         <v>10</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -6800,22 +7067,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="C61" s="3">
         <v>20</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -6823,22 +7090,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="C62" s="3">
         <v>10</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -6846,22 +7113,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="C63" s="3">
         <v>10</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
@@ -6869,22 +7136,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="C64" s="3">
         <v>10</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -6892,22 +7159,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="C65" s="3">
         <v>10</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -6915,22 +7182,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="C66" s="3">
         <v>10</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -6938,22 +7205,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="C67" s="3">
         <v>10</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
@@ -6961,22 +7228,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C68" s="3">
         <v>10</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -7025,36 +7292,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D2" s="3">
         <v>1.5</v>
@@ -7066,7 +7333,7 @@
         <v>1.5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -7074,13 +7341,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3" s="3">
         <v>1.5</v>
@@ -7092,7 +7359,7 @@
         <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -7100,13 +7367,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3">
         <v>1.5</v>
@@ -7118,7 +7385,7 @@
         <v>47</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -7126,13 +7393,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -7144,7 +7411,7 @@
         <v>1.31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -7152,13 +7419,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -7170,7 +7437,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -7178,13 +7445,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -7196,7 +7463,7 @@
         <v>214</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -7204,13 +7471,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D8" s="3">
         <v>2.5</v>
@@ -7222,7 +7489,7 @@
         <v>1.5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -7230,13 +7497,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D9" s="3">
         <v>2.5</v>
@@ -7248,7 +7515,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -7256,13 +7523,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" s="3">
         <v>2.5</v>
@@ -7274,7 +7541,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -7282,13 +7549,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -7300,7 +7567,7 @@
         <v>313</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -7308,13 +7575,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -7326,7 +7593,7 @@
         <v>3.2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -7334,13 +7601,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -7352,7 +7619,7 @@
         <v>139</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -7360,13 +7627,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D14" s="3">
         <v>3.5</v>
@@ -7378,7 +7645,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -7386,13 +7653,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D15" s="3">
         <v>3.5</v>
@@ -7404,7 +7671,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -7412,13 +7679,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="3">
         <v>3.5</v>
@@ -7430,7 +7697,7 @@
         <v>55</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -7438,13 +7705,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -7456,7 +7723,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -7464,13 +7731,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
@@ -7482,7 +7749,7 @@
         <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -7490,13 +7757,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
@@ -7508,7 +7775,7 @@
         <v>110</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -7538,13 +7805,13 @@
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="3" customWidth="1"/>
@@ -7556,59 +7823,59 @@
     <col min="11" max="11" width="15.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="G2" s="3">
         <v>134</v>
@@ -7617,10 +7884,10 @@
         <v>1.7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -7628,22 +7895,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="G3" s="3">
         <v>71</v>
@@ -7652,10 +7919,10 @@
         <v>2.7</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -7663,22 +7930,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3">
         <v>1.8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3">
         <v>90</v>
@@ -7687,10 +7954,10 @@
         <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -7698,22 +7965,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="D5" s="3">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G5" s="3">
         <v>95</v>
@@ -7722,10 +7989,10 @@
         <v>4.5</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -7733,22 +8000,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="3">
         <v>109</v>
@@ -7757,10 +8024,10 @@
         <v>2.7</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
@@ -7768,22 +8035,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="D7" s="3">
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G7" s="3">
         <v>90</v>
@@ -7792,10 +8059,10 @@
         <v>2.7</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -7803,22 +8070,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="G8" s="3">
         <v>80</v>
@@ -7827,10 +8094,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K8" s="3">
         <v>1</v>
@@ -7838,22 +8105,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="3">
         <v>65</v>
@@ -7862,10 +8129,10 @@
         <v>2.7</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K9" s="3">
         <v>1</v>
@@ -7873,22 +8140,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="G10" s="3">
         <v>84</v>
@@ -7897,10 +8164,10 @@
         <v>2.5</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K10" s="3">
         <v>1</v>
@@ -7908,22 +8175,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3">
         <v>1.8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G11" s="3">
         <v>76</v>
@@ -7932,10 +8199,10 @@
         <v>9</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
@@ -7943,22 +8210,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G12" s="3">
         <v>95</v>
@@ -7967,10 +8234,10 @@
         <v>4.5</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
@@ -7978,22 +8245,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G13" s="3">
         <v>90</v>
@@ -8002,10 +8269,10 @@
         <v>2.7</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
@@ -8013,22 +8280,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" s="3">
         <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G14" s="3">
         <v>90</v>
@@ -8037,10 +8304,10 @@
         <v>2.7</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
@@ -8048,22 +8315,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D15" s="3">
         <v>650</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G15" s="3">
         <v>80</v>
@@ -8072,10 +8339,10 @@
         <v>2.7</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -8083,22 +8350,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D16" s="3">
         <v>170</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="G16" s="3">
         <v>88</v>
@@ -8107,10 +8374,10 @@
         <v>2.7</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -8118,22 +8385,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D17" s="3">
         <v>210</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G17" s="3">
         <v>88</v>
@@ -8142,10 +8409,10 @@
         <v>2.7</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -8153,22 +8420,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="3">
         <v>65</v>
@@ -8177,10 +8444,10 @@
         <v>2.7</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -8188,22 +8455,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="G19" s="3">
         <v>65</v>
@@ -8212,10 +8479,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K19" s="3">
         <v>1</v>
@@ -8223,22 +8490,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="G20" s="3">
         <v>45</v>
@@ -8247,10 +8514,10 @@
         <v>2.7</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -8258,22 +8525,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G21" s="3">
         <v>95</v>
@@ -8282,10 +8549,10 @@
         <v>4.5</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -8293,22 +8560,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D22" s="3">
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G22" s="3">
         <v>90</v>
@@ -8317,10 +8584,10 @@
         <v>2.7</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K22" s="3">
         <v>1</v>
@@ -8328,22 +8595,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D23" s="3">
         <v>62</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="G23" s="3">
         <v>80</v>
@@ -8352,10 +8619,10 @@
         <v>2.7</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K23" s="3">
         <v>1</v>
@@ -8363,22 +8630,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D24" s="3">
         <v>170</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="G24" s="3">
         <v>88</v>
@@ -8387,10 +8654,10 @@
         <v>2.7</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -8418,9 +8685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A95F01-B128-436C-9F73-5C18FF680B8D}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8439,42 +8706,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -8482,22 +8749,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="3">
         <v>2.7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -8505,22 +8772,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="3">
         <v>1.9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G4" s="3">
         <v>0.5</v>
@@ -8528,22 +8795,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E5" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G5" s="3">
         <v>0.5</v>
@@ -8551,22 +8818,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" s="3">
         <v>2.7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -8574,22 +8841,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E7" s="3">
         <v>1.8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G7" s="3">
         <v>0.5</v>
@@ -8597,22 +8864,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="3">
         <v>1.8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G8" s="3">
         <v>0.5</v>
@@ -8620,22 +8887,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>442</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E9" s="3">
         <v>1.8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -8643,22 +8910,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="E10" s="3">
         <v>2.4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -8666,22 +8933,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="3">
         <v>1.9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -8689,22 +8956,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>450</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E12" s="3">
         <v>2.7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -8712,22 +8979,22 @@
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="E13" s="3">
         <v>2.8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G13" s="3">
         <v>0.5</v>
@@ -8735,22 +9002,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="3">
         <v>2.8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -8758,22 +9025,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E15" s="3">
         <v>2.7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -8781,22 +9048,22 @@
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G16" s="3">
         <v>0.5</v>
@@ -8804,22 +9071,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="E17" s="3">
         <v>3.2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -8827,22 +9094,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="E18" s="3">
         <v>1.6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -8850,25 +9117,25 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E19" s="3">
         <v>1.5</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G19" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8889,11 +9156,1051 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AC5EE6-56A8-46E5-903C-DFD922B12E0E}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="3">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="3">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="3">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>67</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="3">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3">
+        <v>79</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9" s="3">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3">
+        <v>175</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="3">
+        <v>175</v>
+      </c>
+      <c r="C10" s="3">
+        <v>130</v>
+      </c>
+      <c r="D10" s="3">
+        <v>190</v>
+      </c>
+      <c r="E10" s="3">
+        <v>325</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B11" s="3">
+        <v>349</v>
+      </c>
+      <c r="C11" s="3">
+        <v>253</v>
+      </c>
+      <c r="D11" s="3">
+        <v>365</v>
+      </c>
+      <c r="E11" s="3">
+        <v>740</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="3">
+        <v>505</v>
+      </c>
+      <c r="C12" s="3">
+        <v>385</v>
+      </c>
+      <c r="D12" s="3">
+        <v>558</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1025</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" s="3">
+        <v>585</v>
+      </c>
+      <c r="C13" s="3">
+        <v>440</v>
+      </c>
+      <c r="D13" s="3">
+        <v>643</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1180</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.3"/>
+        <cfvo type="num" val="0.7"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45386E3-6834-48BE-9DB4-36059B842F86}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>15.4</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10">
+        <v>16.3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10">
+        <v>38.9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>43</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10">
+        <v>30</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10">
+        <v>42</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="D15" s="10">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" s="10">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="D17" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B18" s="10">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="D19" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>15</v>
+      </c>
+      <c r="D23" s="10">
+        <v>20</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10">
+        <v>6</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10">
+        <v>12</v>
+      </c>
+      <c r="D25" s="10">
+        <v>20</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10">
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <v>30</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>24</v>
+      </c>
+      <c r="D27" s="10">
+        <v>42</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B28" s="10">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>5</v>
+      </c>
+      <c r="D28" s="10">
+        <v>12</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="10">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G29">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.3"/>
+        <cfvo type="num" val="0.7"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081F05B9-1E94-428E-A64E-FFAE895AC322}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8904,66 +10211,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" t="s">
         <v>465</v>
-      </c>
-      <c r="B1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
         <v>467</v>
-      </c>
-      <c r="B2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" t="s">
         <v>469</v>
-      </c>
-      <c r="B3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" t="s">
         <v>471</v>
-      </c>
-      <c r="B4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" t="s">
         <v>473</v>
-      </c>
-      <c r="B5" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" t="s">
         <v>475</v>
-      </c>
-      <c r="B6" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
         <v>477</v>
-      </c>
-      <c r="B7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/Librería de componentes.xlsx
+++ b/Librería de componentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUNELY\Desktop\ITLA\Décimo segundo cuatrimestre\Electiva Mecatrónica - Diseño Mecatrónico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A2AE2-DE3F-49ED-AF3A-42286E71340F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A3DF62-069F-41D3-933A-A6DCE212D77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencias" sheetId="1" r:id="rId1"/>
@@ -8685,7 +8685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A95F01-B128-436C-9F73-5C18FF680B8D}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -9495,9 +9495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45386E3-6834-48BE-9DB4-36059B842F86}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9692,7 +9692,7 @@
         <v>489</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9761,7 +9761,7 @@
         <v>489</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -9830,7 +9830,7 @@
         <v>489</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -9922,7 +9922,7 @@
         <v>489</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -10014,7 +10014,7 @@
         <v>489</v>
       </c>
       <c r="G22" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -10060,7 +10060,7 @@
         <v>489</v>
       </c>
       <c r="G24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">

--- a/Librería de componentes.xlsx
+++ b/Librería de componentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUNELY\Desktop\ITLA\Décimo segundo cuatrimestre\Electiva Mecatrónica - Diseño Mecatrónico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A3DF62-069F-41D3-933A-A6DCE212D77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EC8EBB-BB71-4BB2-B923-6C6700CE0990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{49458E5D-DEEC-430E-940B-19D27B1F3765}"/>
   </bookViews>
@@ -9496,8 +9496,8 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9692,7 +9692,7 @@
         <v>489</v>
       </c>
       <c r="G8" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9738,7 +9738,7 @@
         <v>489</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -10014,7 +10014,7 @@
         <v>489</v>
       </c>
       <c r="G22" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -10106,7 +10106,7 @@
         <v>489</v>
       </c>
       <c r="G26" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -10129,7 +10129,7 @@
         <v>489</v>
       </c>
       <c r="G27" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
